--- a/output_execution_shell.xlsx
+++ b/output_execution_shell.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E251"/>
+  <dimension ref="B1:E391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,6 +4375,2246 @@
         <v>0.06956603232946693</v>
       </c>
     </row>
+    <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.2020294499122606</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.1977452581334003</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.3177917791779178</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.2519051905190519</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6117795591182364</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.6453106212424849</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.2533836978456849</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.2231883888654007</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.07535336030104942</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.08764468419942074</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1973553294604744</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.1975276247120907</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.245984598459846</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.271027102710271</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.6484448897795592</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.6332945891783567</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2203324113044774</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.2313770512193456</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.3262092508475679</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.08118149649409794</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.08836941941322322</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1979933576421952</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.2032717065143742</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.341034103410341</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.252025202520252</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.5911462925851704</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.6521803607214429</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.2598508941772359</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.2263395524448222</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.07430834849476844</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.08720730714069465</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.1969711934156378</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.1999215283855974</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.2393439343934393</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.264986498649865</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.6520521042084169</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.6402204408817636</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.2171263696428186</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.2301662568919021</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.08260837131189284</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.08911309408688939</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.1980731014011521</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.1971417273908377</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.314991499149915</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.2792279227922792</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.6071943887775552</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.6277074148296593</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.2497825917705676</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.2346219832731481</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.3262092508475677</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.07228722354071783</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.04479878121555429</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.1980414550579545</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.199677832933364</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.326032603260326</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.242984298429843</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.6003967935871743</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.6531583166332665</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2541022848106796</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.2202693309276279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.3262092508475679</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.07039919769009592</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.08689321397688726</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.1964329513998388</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.1989877078814172</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.2242624262426243</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.3302730273027303</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.6607254509018036</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.5993947895791584</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.2098869464138429</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.2563596549342876</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.3262092508475679</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.08863441478246545</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.06388028619739644</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.197648149220877</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.1992040501394266</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.272987298729873</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.2943494349434944</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.6322605210420842</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.6214949899799599</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.2322830909790165</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.2421478878639988</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.3262092508475679</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.08529163460700137</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.0669394003208494</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.2015073383577945</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.2004058009579563</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2438643864386439</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.241024102410241</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.6548496993987976</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.6552184368737475</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2216764837133334</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.2197785892522219</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.08571996268224305</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.08320774238342504</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.1965786996461843</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.1991529411764706</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.2422642264226423</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.253945394539454</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6497595190380762</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.6458797595190381</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.2182292065717872</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.2248865763462806</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.3262092508475677</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.07291464060096634</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.07842851902435147</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.2006010311267955</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.1983880557574156</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.291069106910691</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.2402640264026403</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.6255190380761523</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.6532304609218437</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.2416376687841532</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.2183243299920286</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.07222821213653004</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.09052847179952445</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.2007791222808288</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.20117572026731</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.232983298329833</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.2902290229022902</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.6604689378757514</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.6268496993987976</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.2162826441135681</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.2416340884992137</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.3262092508475677</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.08771529001125296</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.08726918419225435</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.2006910452058739</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.1965230302842825</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.250945094509451</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.2541454145414541</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.6496312625250501</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.6423366733466934</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.2244157599331841</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.2234847354933704</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.07731051557736081</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.1012125059860527</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.198362417101997</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.1954115786994988</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.2141814181418142</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.2323832383238324</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.6690941883767535</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.6544569138276554</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.206120216866138</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.213097103368774</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.1047047910724126</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.09092305453898537</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.2011525301638754</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.1962128934605999</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.2234223422342234</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.2541054105410541</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.6665931863727454</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.6419519038076152</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.2119952108788152</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.2232907473368609</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.09707966015205968</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.08196742761228554</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.197891067040064</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.2001682085786375</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.2770277027702771</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.3141914191419142</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.6301282565130261</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.6110100200400802</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.2341395047847924</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.2507810469720884</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.09389052917346534</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.08670089571257561</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.1977941176470588</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.1984605217120864</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.2582658265826583</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.2042204220422042</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.6414789579158316</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.6752665330661323</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.226016506669989</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.2013198735911542</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.09048037503873929</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.1022109696251597</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.1959449235890453</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.1952191235059761</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.259025902590259</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.2371837183718372</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.6385370741482966</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.6512184368737475</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.2252882835183219</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.2151808486144581</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.1045676805771065</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.07135967426144309</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.1971101507603998</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.1965628917676557</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.239023902390239</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.3010701070107011</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.6524208416833668</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.6133587174348697</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.2170576822770369</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.243267776038712</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.09275689083871061</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.08271114165049623</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.1962126920682764</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.2002219697169886</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.2395839583958396</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.3031103110311031</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.6509619238476954</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.6177434869739479</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.2168165433107483</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.2463520722790383</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.09020487796784928</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.06080168188935459</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.1996421069011126</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.1989788905252823</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.2053005300530053</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.4053605360536053</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.6758356713426854</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.5538557114228457</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.2024515506675539</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.2840038551264403</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.08068867492001948</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.07391407546806669</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.2021555642124399</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.1977331814331201</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.3113911391139114</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.2707870787078708</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.6157555110220441</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.6337274549098196</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.2508972925687464</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.2313948801591945</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.09395685184258554</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.07155706157818764</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.1977973429265676</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.1969442891745854</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.2507450745074508</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.2114211421142114</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.6460881763527054</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.6692384769539078</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.2227031869765181</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.204054371553668</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.3262092508475677</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.08326823510927144</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.07771983367325856</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.1976059046083235</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.1976420833091941</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.2549054905490549</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.2729472947294729</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.6432905811623246</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.6322765531062124</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.224434467160404</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.2322625065824049</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.3262092508475679</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.08183371459038591</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.08274398009935872</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.2029942624910351</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.1960540283319302</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.2717471747174717</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.2142614261426143</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.6402765531062125</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.6664969939879759</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.2348682978092098</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.2049556432777684</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.0979099033582632</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.1034117854552844</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.197100806153391</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.2039315966117948</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.2132213221322132</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.2552255225522552</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.6683006012024049</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.6511222444889779</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.2050026694493296</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.2281415093974813</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.09493987594304723</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.0827776460159462</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.2012379409560192</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.1957923180853117</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.3329532953295329</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.2029002900290029</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.6015190380761523</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.6732785571142285</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.2588490594663936</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.1993146209513003</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.07224156860777366</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.1061161709237106</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.2528212528212528</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.2001294812656794</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.1986664008329456</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.3944011544011544</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.2967896789678968</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.3587558755875588</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>rand score</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.7540200400801603</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.6213987975951903</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.5815430861723447</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>fowlkesmallows score</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.3157736435642599</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.2437136936999082</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.2669695461670719</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>silhouette score</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.3262092508475678</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.08472115265057689</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.07271327948266978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
